--- a/biology/Médecine/Thermes_Tettuccio/Thermes_Tettuccio.xlsx
+++ b/biology/Médecine/Thermes_Tettuccio/Thermes_Tettuccio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre de Thermes Tettuccio est l’un des principaux établissements thermaux de Montecatini Terme. Ils sont situés sur Viale Verdi, 71.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’établissement de Tettuccio, connu sous le nom de « Bagno nuovo » (nouveau bain) depuis le XIVe siècle, a ainsi été nommée pour la présence d'une toiture « Tettuccio » (petit toit), qui couvrait la première source.
 Le bâtiment, conçu par l'architecte Gaspero Maria Paoletti entre 1779 et 1781, était caractérisé par un portail rustique de grand effet visuel. En 1916, l'architecte florentin Ugo Giovannozzi présente un projet de restructuration de l'ensemble. Ce projet, basé sur le concept des thermes romains, sera finalisé en 1928.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'établissement est situé dans un parc riche en cèdres du Liban, palmiers, séquoias, acacias, lauriers, glycines, pins, limes et orné de colonnades, tribunes, exèdres, fontaines et grands parterres de fleurs bordés de buis. L'entrée monumentale du  spa est comprend un portail et un toit en fer forgé ainsi que des fenêtres en verre polychrome, œuvre de la manufacture Berti de Pistoia. Au sommet de la façade principale, sont placées quatre grandes statues en marbre de Carrare, sculptées par Corrado Vigni qui personnalisent la Source, la Médecine,l' hygiène et la santé. Les éléments décoratifs de la façade ont été réalisés par Aristide Aloisi.
 			Thermes Tettuccio
@@ -582,7 +598,9 @@
           <t>Les eaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cet établissement les eaux sont caractérisées par des propriétés minérales et cicatrisantes. Les sources s'appellent: Rinfresco, Leopoldina, Regina et Tettuccio.
 </t>
